--- a/biology/Botanique/Plane/Plane.xlsx
+++ b/biology/Botanique/Plane/Plane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plane ou couteau à deux manches[1] est un outil pour le travail du bois qui est utilisé depuis les Gaulois. Elle est composée d'une lame semblable à celle d'un couteau, munie de deux poignées, à chaque extrémité de la lame. Elle permet le dégrossissage et le creusage de formes courbes, galbées et même droites. On s'en sert essentiellement pour enlever l'écorce d'un morceau de bois que l'on veut travailler. On manie la plane en la tirant vers soi. 
-En treillage, la plane sert à planer les branches et à les couper ; Planer : Dresser avec la plane chaque face des tringles pour faire du treillage[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plane ou couteau à deux manches est un outil pour le travail du bois qui est utilisé depuis les Gaulois. Elle est composée d'une lame semblable à celle d'un couteau, munie de deux poignées, à chaque extrémité de la lame. Elle permet le dégrossissage et le creusage de formes courbes, galbées et même droites. On s'en sert essentiellement pour enlever l'écorce d'un morceau de bois que l'on veut travailler. On manie la plane en la tirant vers soi. 
+En treillage, la plane sert à planer les branches et à les couper ; Planer : Dresser avec la plane chaque face des tringles pour faire du treillage.
 </t>
         </is>
       </c>
